--- a/natmiOut/YoungD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>C3ar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>143.733557270241</v>
+        <v>34.739995</v>
       </c>
       <c r="H2">
-        <v>143.733557270241</v>
+        <v>104.219985</v>
       </c>
       <c r="I2">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J2">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.98286870407612</v>
+        <v>11.838451</v>
       </c>
       <c r="N2">
-        <v>2.98286870407612</v>
+        <v>35.515353</v>
       </c>
       <c r="O2">
-        <v>0.8311176677991653</v>
+        <v>0.9341683151774448</v>
       </c>
       <c r="P2">
-        <v>0.8311176677991653</v>
+        <v>0.9341683151774446</v>
       </c>
       <c r="Q2">
-        <v>428.7383297069345</v>
+        <v>411.267728547745</v>
       </c>
       <c r="R2">
-        <v>428.7383297069345</v>
+        <v>3701.409556929705</v>
       </c>
       <c r="S2">
-        <v>0.829098612245074</v>
+        <v>0.1706975253685276</v>
       </c>
       <c r="T2">
-        <v>0.829098612245074</v>
+        <v>0.1706975253685276</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +581,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>143.733557270241</v>
+        <v>34.739995</v>
       </c>
       <c r="H3">
-        <v>143.733557270241</v>
+        <v>104.219985</v>
       </c>
       <c r="I3">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J3">
-        <v>0.99757067424708</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.606116128811481</v>
+        <v>0.623012</v>
       </c>
       <c r="N3">
-        <v>0.606116128811481</v>
+        <v>1.869036</v>
       </c>
       <c r="O3">
-        <v>0.1688823322008347</v>
+        <v>0.0491616741392375</v>
       </c>
       <c r="P3">
-        <v>0.1688823322008347</v>
+        <v>0.04916167413923749</v>
       </c>
       <c r="Q3">
-        <v>87.11922731294177</v>
+        <v>21.64343376494</v>
       </c>
       <c r="R3">
-        <v>87.11922731294177</v>
+        <v>194.79090388446</v>
       </c>
       <c r="S3">
-        <v>0.168472062002006</v>
+        <v>0.008983152160269715</v>
       </c>
       <c r="T3">
-        <v>0.168472062002006</v>
+        <v>0.008983152160269712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.350025959312558</v>
+        <v>34.739995</v>
       </c>
       <c r="H4">
-        <v>0.350025959312558</v>
+        <v>104.219985</v>
       </c>
       <c r="I4">
-        <v>0.002429325752920079</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="J4">
-        <v>0.002429325752920079</v>
+        <v>0.1827267341390226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.98286870407612</v>
+        <v>0.2112543333333333</v>
       </c>
       <c r="N4">
-        <v>2.98286870407612</v>
+        <v>0.633763</v>
       </c>
       <c r="O4">
-        <v>0.8311176677991653</v>
+        <v>0.0166700106833178</v>
       </c>
       <c r="P4">
-        <v>0.8311176677991653</v>
+        <v>0.0166700106833178</v>
       </c>
       <c r="Q4">
-        <v>1.044081479647651</v>
+        <v>7.338974483728333</v>
       </c>
       <c r="R4">
-        <v>1.044081479647651</v>
+        <v>66.050770353555</v>
       </c>
       <c r="S4">
-        <v>0.002019055554091387</v>
+        <v>0.003046056610225279</v>
       </c>
       <c r="T4">
-        <v>0.002019055554091387</v>
+        <v>0.003046056610225279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.350025959312558</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>0.350025959312558</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="J5">
-        <v>0.002429325752920079</v>
+        <v>0.8145606273154508</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.606116128811481</v>
+        <v>11.838451</v>
       </c>
       <c r="N5">
-        <v>0.606116128811481</v>
+        <v>35.515353</v>
       </c>
       <c r="O5">
-        <v>0.1688823322008347</v>
+        <v>0.9341683151774448</v>
       </c>
       <c r="P5">
-        <v>0.1688823322008347</v>
+        <v>0.9341683151774446</v>
       </c>
       <c r="Q5">
-        <v>0.2121563794420526</v>
+        <v>1833.352413038665</v>
       </c>
       <c r="R5">
-        <v>0.2121563794420526</v>
+        <v>16500.17171734798</v>
       </c>
       <c r="S5">
-        <v>0.0004102701988286915</v>
+        <v>0.7609367288291572</v>
       </c>
       <c r="T5">
-        <v>0.0004102701988286915</v>
+        <v>0.760936728829157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>154.8642143333334</v>
+      </c>
+      <c r="H6">
+        <v>464.5926430000001</v>
+      </c>
+      <c r="I6">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="J6">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.623012</v>
+      </c>
+      <c r="N6">
+        <v>1.869036</v>
+      </c>
+      <c r="O6">
+        <v>0.0491616741392375</v>
+      </c>
+      <c r="P6">
+        <v>0.04916167413923749</v>
+      </c>
+      <c r="Q6">
+        <v>96.48226390023869</v>
+      </c>
+      <c r="R6">
+        <v>868.3403751021481</v>
+      </c>
+      <c r="S6">
+        <v>0.04004516412673507</v>
+      </c>
+      <c r="T6">
+        <v>0.04004516412673506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>154.8642143333334</v>
+      </c>
+      <c r="H7">
+        <v>464.5926430000001</v>
+      </c>
+      <c r="I7">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="J7">
+        <v>0.8145606273154508</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2112543333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.633763</v>
+      </c>
+      <c r="O7">
+        <v>0.0166700106833178</v>
+      </c>
+      <c r="P7">
+        <v>0.0166700106833178</v>
+      </c>
+      <c r="Q7">
+        <v>32.71573635617878</v>
+      </c>
+      <c r="R7">
+        <v>294.4416272056091</v>
+      </c>
+      <c r="S7">
+        <v>0.01357873435955861</v>
+      </c>
+      <c r="T7">
+        <v>0.01357873435955861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.54718</v>
+      </c>
+      <c r="I8">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J8">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.838451</v>
+      </c>
+      <c r="N8">
+        <v>35.515353</v>
+      </c>
+      <c r="O8">
+        <v>0.9341683151774448</v>
+      </c>
+      <c r="P8">
+        <v>0.9341683151774446</v>
+      </c>
+      <c r="Q8">
+        <v>6.105404872726666</v>
+      </c>
+      <c r="R8">
+        <v>54.94864385453999</v>
+      </c>
+      <c r="S8">
+        <v>0.002534060979760059</v>
+      </c>
+      <c r="T8">
+        <v>0.002534060979760058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.54718</v>
+      </c>
+      <c r="I9">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J9">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.623012</v>
+      </c>
+      <c r="N9">
+        <v>1.869036</v>
+      </c>
+      <c r="O9">
+        <v>0.0491616741392375</v>
+      </c>
+      <c r="P9">
+        <v>0.04916167413923749</v>
+      </c>
+      <c r="Q9">
+        <v>0.3213039020533333</v>
+      </c>
+      <c r="R9">
+        <v>2.89173511848</v>
+      </c>
+      <c r="S9">
+        <v>0.0001333578522327181</v>
+      </c>
+      <c r="T9">
+        <v>0.0001333578522327181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5157266666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.54718</v>
+      </c>
+      <c r="I10">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="J10">
+        <v>0.002712638545526686</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2112543333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.633763</v>
+      </c>
+      <c r="O10">
+        <v>0.0166700106833178</v>
+      </c>
+      <c r="P10">
+        <v>0.0166700106833178</v>
+      </c>
+      <c r="Q10">
+        <v>0.1089494931488889</v>
+      </c>
+      <c r="R10">
+        <v>0.98054543834</v>
+      </c>
+      <c r="S10">
+        <v>4.521971353390951E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.521971353390952E-05</v>
       </c>
     </row>
   </sheetData>
